--- a/docs/src/datasets-especificaciones/servicios/servicio.xlsx
+++ b/docs/src/datasets-especificaciones/servicios/servicio.xlsx
@@ -1,37 +1,148 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+  <si>
+    <t>organizacion_id</t>
+  </si>
+  <si>
+    <t>organizacion_nombre</t>
+  </si>
+  <si>
+    <t>servicio_id</t>
+  </si>
+  <si>
+    <t>servicio_nombre</t>
+  </si>
+  <si>
+    <t>servicio_proveedor</t>
+  </si>
+  <si>
+    <t>servicio_contacto</t>
+  </si>
+  <si>
+    <t>servicio_descripcion</t>
+  </si>
+  <si>
+    <t>servicio_fecha_inicio</t>
+  </si>
+  <si>
+    <t>servicio_fecha_fin</t>
+  </si>
+  <si>
+    <t>servicio_dias_semana</t>
+  </si>
+  <si>
+    <t>servicio_hora inicio</t>
+  </si>
+  <si>
+    <t>servicio_hora_fin</t>
+  </si>
+  <si>
+    <t>servicio_costo</t>
+  </si>
+  <si>
+    <t>servicio_enlace</t>
+  </si>
+  <si>
+    <t>servicio_enlace_descripcion</t>
+  </si>
+  <si>
+    <t>servicio_tramite_inicio_id</t>
+  </si>
+  <si>
+    <t>servicio_tramite_nombre</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>Municipio de Bahia Blanca</t>
+  </si>
+  <si>
+    <t>Poda</t>
+  </si>
+  <si>
+    <t>Arbolado urbano</t>
+  </si>
+  <si>
+    <t>Parque de Mayo s/n - 2914880350</t>
+  </si>
+  <si>
+    <t>Los vecinos deben solicitar al municipio autorización para podar o extraer un árbol. Para ello, ingresando al Centro de Atención al Vecino en la web del Municipio de Bahía Blanca, el vecino puede solicitar un turno para la realización del trabajo, justificando los motivos de la solicitud (interferencia peatonal, interferencia vehicular, interferencia con luminarias o carteles, riesgo de caída de ramas, etc.), indicando, además, la dirección de referencia para intervención, las observaciones que quiera formular e, incluso, puede adjuntar una foto del árbol a intervenir.</t>
+  </si>
+  <si>
+    <t>2019-03-01</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>Lunes a Viernes</t>
+  </si>
+  <si>
+    <t>8:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>Sin costo</t>
+  </si>
+  <si>
+    <t>https://www.bahia.gob.ar/arbolado/poda/</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>Poda de árbol, extracción de árbol o corte de raíz.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,26 +157,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -353,190 +479,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>organizacion_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>organizacion_nombre</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>servicio_id</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>servicio_nombre</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>servicio_proveedor</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>servicio_contacto</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>servicio_descripcion</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>servicio_fecha_inicio</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>servicio_fecha_fin</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>servicio_dias_semana</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>servicio_hora inicio</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>servicio_hora_fin</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>servicio_costo</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>servicio_enlace</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>servicio_enlace_descripcion</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>servicio_tramite_inicio_id</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>servicio_tramite_nombre</t>
-        </is>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>325</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Municipio de Bahia Blanca</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Poda</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Arbolado urbano</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Parque de Mayo s/n - 2914880350</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Los vecinos deben solicitar al municipio autorización para podar o extraer un árbol. Para ello, ingresando al Centro de Atención al Vecino en la web del Municipio de Bahía Blanca, el vecino puede solicitar un turno para la realización del trabajo, justificando los motivos de la solicitud (interferencia peatonal, interferencia vehicular, interferencia con luminarias o carteles, riesgo de caída de ramas, etc.), indicando, además, la dirección de referencia para intervención, las observaciones que quiera formular e, incluso, puede adjuntar una foto del árbol a intervenir.</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2019-03-01</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2019-09-30</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Lunes a Viernes</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>8:00</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Sin costo</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>https://www.bahia.gob.ar/arbolado/poda/</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>https://www.bahia.gob.ar/arbolado/poda/</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>333</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Poda de árbol, extracción de árbol o corte de raíz.</t>
-        </is>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1"/>
+    <hyperlink ref="O2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>